--- a/data/Products_Sales_Data.xlsx
+++ b/data/Products_Sales_Data.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhaa_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\CodingTemple\projects\Product-Sales-Data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50741CE-F61A-4F44-A397-9F51C9D1973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F2BA29-40A5-4064-8683-DCAF17C0BE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Solution" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="26">
   <si>
     <t>Product</t>
   </si>
@@ -96,6 +109,9 @@
   </si>
   <si>
     <t>4)  What is the avrage total units sold for both products D &amp; C per month:</t>
+  </si>
+  <si>
+    <t>units sold</t>
   </si>
 </sst>
 </file>
@@ -628,7 +644,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,13 +677,10 @@
     <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,9 +748,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -775,7 +788,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -881,7 +894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1023,7 +1036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1033,31 +1046,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="65.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="65.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -1065,14 +1078,14 @@
       </c>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>249</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>10.72128008</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1081,14 +1094,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9">
         <v>201</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>20.88932995</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1097,14 +1110,14 @@
       <c r="E3" s="13"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>221</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>74.286291910000003</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1113,14 +1126,14 @@
       <c r="E4" s="13"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9">
         <v>218</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>86.502598120000002</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1129,14 +1142,14 @@
       <c r="E5" s="13"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="9">
         <v>237</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>36.364192410000001</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1145,14 +1158,14 @@
       <c r="E6" s="13"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="9">
         <v>204</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>67.452082290000007</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1161,14 +1174,14 @@
       <c r="E7" s="13"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="9">
         <v>225</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>73.603049380000002</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1177,14 +1190,14 @@
       <c r="E8" s="13"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="9">
         <v>200</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>23.1321817</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1193,14 +1206,14 @@
       <c r="E9" s="13"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="9">
         <v>196</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>58.687622349999998</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1209,14 +1222,14 @@
       <c r="E10" s="13"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9">
         <v>246</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>54.706910559999997</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -1225,14 +1238,14 @@
       <c r="E11" s="13"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="9">
         <v>199</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>40.413558199999997</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1241,14 +1254,14 @@
       <c r="E12" s="13"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="9">
         <v>202</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>19.523137309999999</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1257,14 +1270,14 @@
       <c r="E13" s="13"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="9">
         <v>284</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>84.116698499999998</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1273,14 +1286,14 @@
       <c r="E14" s="13"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="9">
         <v>284</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>89.956728400000003</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -1289,14 +1302,14 @@
       <c r="E15" s="13"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="9">
         <v>228</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>77.598358399999995</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -1305,14 +1318,14 @@
       <c r="E16" s="13"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="9">
         <v>205</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>81.068678550000001</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -1321,14 +1334,14 @@
       <c r="E17" s="13"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="9">
         <v>243</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>9.315858746</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1337,14 +1350,14 @@
       <c r="E18" s="13"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="9">
         <v>239</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>20.047824550000001</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -1353,14 +1366,14 @@
       <c r="E19" s="13"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="9">
         <v>248</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>6.9766802029999999</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -1369,14 +1382,14 @@
       <c r="E20" s="13"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="9">
         <v>239</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>38.404382159999997</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1385,14 +1398,14 @@
       <c r="E21" s="13"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="9">
         <v>335</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>47.135947160000001</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -1401,14 +1414,14 @@
       <c r="E22" s="13"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="9">
         <v>315</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>79.556502719999997</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -1417,14 +1430,14 @@
       <c r="E23" s="13"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="9">
         <v>199</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>8.8629446440000006</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -1433,14 +1446,14 @@
       <c r="E24" s="13"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="9">
         <v>352</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>49.923070449999997</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -1449,14 +1462,14 @@
       <c r="E25" s="13"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="9">
         <v>243</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>51.857228319999997</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -1465,14 +1478,14 @@
       <c r="E26" s="13"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="9">
         <v>232</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>63.540905029999998</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -1481,14 +1494,14 @@
       <c r="E27" s="13"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="9">
         <v>372</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>19.005954389999999</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -1497,14 +1510,14 @@
       <c r="E28" s="13"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="9">
         <v>218</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>92.414118259999995</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -1513,14 +1526,14 @@
       <c r="E29" s="13"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="9">
         <v>208</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>92.035061510000006</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -1529,14 +1542,14 @@
       <c r="E30" s="13"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="9">
         <v>247</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>59.408852060000001</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -1545,14 +1558,14 @@
       <c r="E31" s="13"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="9">
         <v>197</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>69.702808410000003</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -1561,14 +1574,14 @@
       <c r="E32" s="13"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="9">
         <v>265</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>43.489019970000001</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -1577,14 +1590,14 @@
       <c r="E33" s="13"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="9">
         <v>376</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>8.1940684249999993</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -1593,14 +1606,14 @@
       <c r="E34" s="13"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="9">
         <v>354</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>30.12557228</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -1609,14 +1622,14 @@
       <c r="E35" s="13"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="9">
         <v>370</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>12.488641980000001</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -1625,14 +1638,14 @@
       <c r="E36" s="13"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="9">
         <v>197</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>82.694333499999999</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -1641,14 +1654,14 @@
       <c r="E37" s="13"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="9">
         <v>239</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>43.082982180000002</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -1657,14 +1670,14 @@
       <c r="E38" s="13"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="9">
         <v>258</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>50.598888119999998</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -1673,14 +1686,14 @@
       <c r="E39" s="13"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="9">
         <v>293</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>22.056238100000002</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -1689,14 +1702,14 @@
       <c r="E40" s="13"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="9">
         <v>202</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>64.379325089999995</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -1705,14 +1718,14 @@
       <c r="E41" s="13"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="9">
         <v>246</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>60.544409880000003</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -1721,14 +1734,14 @@
       <c r="E42" s="13"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="9">
         <v>263</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <v>41.24548755</v>
       </c>
       <c r="D43" s="9" t="s">
@@ -1737,14 +1750,14 @@
       <c r="E43" s="13"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="9">
         <v>359</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>30.212861119999999</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -1753,14 +1766,14 @@
       <c r="E44" s="13"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="9">
         <v>201</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="15">
         <v>46.05408663</v>
       </c>
       <c r="D45" s="9" t="s">
@@ -1769,14 +1782,14 @@
       <c r="E45" s="13"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="9">
         <v>290</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="15">
         <v>71.041544279999997</v>
       </c>
       <c r="D46" s="9" t="s">
@@ -1785,14 +1798,14 @@
       <c r="E46" s="13"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="9">
         <v>309</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="15">
         <v>58.480134300000003</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -1801,14 +1814,14 @@
       <c r="E47" s="13"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="9">
         <v>224</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="15">
         <v>87.643505000000005</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -1817,14 +1830,14 @@
       <c r="E48" s="13"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="9">
         <v>287</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <v>28.756440810000001</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -1833,14 +1846,14 @@
       <c r="E49" s="13"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="9">
         <v>292</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="15">
         <v>74.166479010000003</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -1849,14 +1862,14 @@
       <c r="E50" s="13"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="9">
         <v>379</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>4.8746418050000004</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -1865,14 +1878,14 @@
       <c r="E51" s="13"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="9">
         <v>195</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="15">
         <v>77.470668349999997</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -1881,14 +1894,14 @@
       <c r="E52" s="13"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="9">
         <v>207</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="15">
         <v>51.127411690000002</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -1897,14 +1910,14 @@
       <c r="E53" s="13"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="9">
         <v>299</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="15">
         <v>79.081343009999998</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -1913,14 +1926,14 @@
       <c r="E54" s="13"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="9">
         <v>258</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="15">
         <v>63.234370140000003</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -1929,14 +1942,14 @@
       <c r="E55" s="13"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="9">
         <v>233</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="15">
         <v>48.329809699999998</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -1945,14 +1958,14 @@
       <c r="E56" s="13"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="9">
         <v>293</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>9.062154778</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -1961,14 +1974,14 @@
       <c r="E57" s="13"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="9">
         <v>295</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>82.567940680000007</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -1977,14 +1990,14 @@
       <c r="E58" s="13"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="9">
         <v>196</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="15">
         <v>33.60697321</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -1993,14 +2006,14 @@
       <c r="E59" s="13"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="9">
         <v>282</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>16.364465030000002</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -2009,14 +2022,14 @@
       <c r="E60" s="13"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="9">
         <v>322</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="15">
         <v>65.139805940000002</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -2025,14 +2038,14 @@
       <c r="E61" s="13"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="9">
         <v>195</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="15">
         <v>93.020579310000002</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -2041,14 +2054,14 @@
       <c r="E62" s="13"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="9">
         <v>212</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="15">
         <v>86.531623670000002</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -2057,14 +2070,14 @@
       <c r="E63" s="13"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B64" s="9">
         <v>244</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="15">
         <v>14.93415233</v>
       </c>
       <c r="D64" s="9" t="s">
@@ -2073,14 +2086,14 @@
       <c r="E64" s="13"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="9">
         <v>280</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="15">
         <v>16.14966875</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -2089,14 +2102,14 @@
       <c r="E65" s="13"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="9">
         <v>356</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="15">
         <v>26.768873939999999</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -2105,14 +2118,14 @@
       <c r="E66" s="13"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="9">
         <v>264</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="15">
         <v>38.711801579999999</v>
       </c>
       <c r="D67" s="9" t="s">
@@ -2121,14 +2134,14 @@
       <c r="E67" s="13"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="9">
         <v>341</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="15">
         <v>47.087925009999999</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -2137,14 +2150,14 @@
       <c r="E68" s="13"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="9">
         <v>202</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="15">
         <v>83.485965129999997</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -2153,14 +2166,14 @@
       <c r="E69" s="13"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="9">
         <v>393</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="15">
         <v>5.5961154750000004</v>
       </c>
       <c r="D70" s="9" t="s">
@@ -2169,14 +2182,14 @@
       <c r="E70" s="13"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="9">
         <v>242</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="15">
         <v>72.720663479999999</v>
       </c>
       <c r="D71" s="9" t="s">
@@ -2185,14 +2198,14 @@
       <c r="E71" s="13"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="9">
         <v>218</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="15">
         <v>62.286339179999999</v>
       </c>
       <c r="D72" s="9" t="s">
@@ -2201,14 +2214,14 @@
       <c r="E72" s="13"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="9">
         <v>292</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="15">
         <v>3.3420099780000001</v>
       </c>
       <c r="D73" s="9" t="s">
@@ -2217,14 +2230,14 @@
       <c r="E73" s="13"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="9">
         <v>202</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="15">
         <v>58.529442510000003</v>
       </c>
       <c r="D74" s="9" t="s">
@@ -2233,14 +2246,14 @@
       <c r="E74" s="13"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="9">
         <v>258</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="15">
         <v>34.666217369999998</v>
       </c>
       <c r="D75" s="9" t="s">
@@ -2249,14 +2262,14 @@
       <c r="E75" s="13"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="9">
         <v>355</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="15">
         <v>37.260775559999999</v>
       </c>
       <c r="D76" s="9" t="s">
@@ -2265,14 +2278,14 @@
       <c r="E76" s="13"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="9">
         <v>215</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="15">
         <v>97.144645229999995</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -2281,14 +2294,14 @@
       <c r="E77" s="13"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="9">
         <v>203</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="15">
         <v>18.190162109999999</v>
       </c>
       <c r="D78" s="9" t="s">
@@ -2297,14 +2310,14 @@
       <c r="E78" s="13"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B79" s="9">
         <v>314</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="15">
         <v>64.870385110000001</v>
       </c>
       <c r="D79" s="9" t="s">
@@ -2313,14 +2326,14 @@
       <c r="E79" s="13"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="9">
         <v>199</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="15">
         <v>10.950645010000001</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -2329,14 +2342,14 @@
       <c r="E80" s="13"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="9">
         <v>201</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="15">
         <v>42.310100290000001</v>
       </c>
       <c r="D81" s="9" t="s">
@@ -2345,14 +2358,14 @@
       <c r="E81" s="13"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="9">
         <v>273</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="15">
         <v>25.583930590000001</v>
       </c>
       <c r="D82" s="9" t="s">
@@ -2361,14 +2374,14 @@
       <c r="E82" s="13"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="9">
         <v>199</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="15">
         <v>36.076391219999998</v>
       </c>
       <c r="D83" s="9" t="s">
@@ -2377,14 +2390,14 @@
       <c r="E83" s="13"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B84" s="9">
         <v>253</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="15">
         <v>5.5009857010000003</v>
       </c>
       <c r="D84" s="9" t="s">
@@ -2393,14 +2406,14 @@
       <c r="E84" s="13"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="9">
         <v>234</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="15">
         <v>86.376288639999999</v>
       </c>
       <c r="D85" s="9" t="s">
@@ -2409,14 +2422,14 @@
       <c r="E85" s="13"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B86" s="9">
         <v>271</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="15">
         <v>97.235369030000001</v>
       </c>
       <c r="D86" s="9" t="s">
@@ -2425,14 +2438,14 @@
       <c r="E86" s="13"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B87" s="9">
         <v>344</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="15">
         <v>28.24025541</v>
       </c>
       <c r="D87" s="9" t="s">
@@ -2441,14 +2454,14 @@
       <c r="E87" s="13"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B88" s="9">
         <v>201</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="15">
         <v>45.24944301</v>
       </c>
       <c r="D88" s="9" t="s">
@@ -2457,14 +2470,14 @@
       <c r="E88" s="13"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="9">
         <v>340</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="15">
         <v>43.257678329999997</v>
       </c>
       <c r="D89" s="9" t="s">
@@ -2473,14 +2486,14 @@
       <c r="E89" s="13"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="9">
         <v>201</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="15">
         <v>57.828284510000003</v>
       </c>
       <c r="D90" s="9" t="s">
@@ -2489,14 +2502,14 @@
       <c r="E90" s="13"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="9">
         <v>200</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="15">
         <v>57.977871700000001</v>
       </c>
       <c r="D91" s="9" t="s">
@@ -2505,14 +2518,14 @@
       <c r="E91" s="13"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B92" s="9">
         <v>211</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="15">
         <v>90.539876300000003</v>
       </c>
       <c r="D92" s="9" t="s">
@@ -2521,14 +2534,14 @@
       <c r="E92" s="13"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="9">
         <v>255</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="15">
         <v>59.188816350000003</v>
       </c>
       <c r="D93" s="9" t="s">
@@ -2537,14 +2550,14 @@
       <c r="E93" s="13"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B94" s="9">
         <v>201</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="15">
         <v>92.290841569999998</v>
       </c>
       <c r="D94" s="9" t="s">
@@ -2553,14 +2566,14 @@
       <c r="E94" s="13"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B95" s="9">
         <v>357</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="15">
         <v>40.284662470000001</v>
       </c>
       <c r="D95" s="9" t="s">
@@ -2569,14 +2582,14 @@
       <c r="E95" s="13"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="9">
         <v>207</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="15">
         <v>83.168808049999996</v>
       </c>
       <c r="D96" s="9" t="s">
@@ -2585,14 +2598,14 @@
       <c r="E96" s="13"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="9">
         <v>219</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="15">
         <v>90.177914689999994</v>
       </c>
       <c r="D97" s="9" t="s">
@@ -2601,14 +2614,14 @@
       <c r="E97" s="13"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B98" s="9">
         <v>217</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="15">
         <v>87.181160879999993</v>
       </c>
       <c r="D98" s="9" t="s">
@@ -2617,14 +2630,14 @@
       <c r="E98" s="13"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="9">
         <v>197</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="15">
         <v>77.557250920000001</v>
       </c>
       <c r="D99" s="9" t="s">
@@ -2633,14 +2646,14 @@
       <c r="E99" s="13"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="9">
         <v>196</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="15">
         <v>37.316439770000002</v>
       </c>
       <c r="D100" s="9" t="s">
@@ -2649,14 +2662,14 @@
       <c r="E100" s="13"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="9">
         <v>200</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="15">
         <v>11.89741106</v>
       </c>
       <c r="D101" s="9" t="s">
@@ -2665,14 +2678,14 @@
       <c r="E101" s="13"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="9">
         <v>201</v>
       </c>
-      <c r="C102" s="16">
+      <c r="C102" s="15">
         <v>31.507906859999999</v>
       </c>
       <c r="D102" s="9" t="s">
@@ -2681,14 +2694,14 @@
       <c r="E102" s="13"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B103" s="9">
         <v>196</v>
       </c>
-      <c r="C103" s="16">
+      <c r="C103" s="15">
         <v>97.360780349999999</v>
       </c>
       <c r="D103" s="9" t="s">
@@ -2697,14 +2710,14 @@
       <c r="E103" s="13"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="9">
         <v>260</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="15">
         <v>49.638317669999999</v>
       </c>
       <c r="D104" s="9" t="s">
@@ -2713,14 +2726,14 @@
       <c r="E104" s="13"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B105" s="9">
         <v>368</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="15">
         <v>19.19214873</v>
       </c>
       <c r="D105" s="9" t="s">
@@ -2729,14 +2742,14 @@
       <c r="E105" s="13"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="9">
         <v>201</v>
       </c>
-      <c r="C106" s="16">
+      <c r="C106" s="15">
         <v>91.158426000000006</v>
       </c>
       <c r="D106" s="9" t="s">
@@ -2745,14 +2758,14 @@
       <c r="E106" s="13"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="9">
         <v>199</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="15">
         <v>55.461290040000002</v>
       </c>
       <c r="D107" s="9" t="s">
@@ -2761,14 +2774,14 @@
       <c r="E107" s="13"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B108" s="9">
         <v>224</v>
       </c>
-      <c r="C108" s="16">
+      <c r="C108" s="15">
         <v>69.90476391</v>
       </c>
       <c r="D108" s="9" t="s">
@@ -2777,14 +2790,14 @@
       <c r="E108" s="13"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B109" s="9">
         <v>198</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="15">
         <v>17.862628699999998</v>
       </c>
       <c r="D109" s="9" t="s">
@@ -2793,14 +2806,14 @@
       <c r="E109" s="13"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="9">
         <v>206</v>
       </c>
-      <c r="C110" s="16">
+      <c r="C110" s="15">
         <v>100.6347579</v>
       </c>
       <c r="D110" s="9" t="s">
@@ -2809,14 +2822,14 @@
       <c r="E110" s="13"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B111" s="9">
         <v>341</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C111" s="15">
         <v>47.771792140000002</v>
       </c>
       <c r="D111" s="9" t="s">
@@ -2825,14 +2838,14 @@
       <c r="E111" s="13"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="9">
         <v>285</v>
       </c>
-      <c r="C112" s="16">
+      <c r="C112" s="15">
         <v>10.09333195</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -2841,14 +2854,14 @@
       <c r="E112" s="13"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="9">
         <v>258</v>
       </c>
-      <c r="C113" s="16">
+      <c r="C113" s="15">
         <v>33.149773510000003</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -2857,14 +2870,14 @@
       <c r="E113" s="13"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="9">
         <v>254</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C114" s="15">
         <v>53.940118460000001</v>
       </c>
       <c r="D114" s="9" t="s">
@@ -2873,14 +2886,14 @@
       <c r="E114" s="13"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="9">
         <v>201</v>
       </c>
-      <c r="C115" s="16">
+      <c r="C115" s="15">
         <v>80.121986320000005</v>
       </c>
       <c r="D115" s="9" t="s">
@@ -2889,14 +2902,14 @@
       <c r="E115" s="13"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B116" s="9">
         <v>372</v>
       </c>
-      <c r="C116" s="16">
+      <c r="C116" s="15">
         <v>14.16297166</v>
       </c>
       <c r="D116" s="9" t="s">
@@ -2905,14 +2918,14 @@
       <c r="E116" s="13"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B117" s="9">
         <v>214</v>
       </c>
-      <c r="C117" s="16">
+      <c r="C117" s="15">
         <v>93.744829359999997</v>
       </c>
       <c r="D117" s="9" t="s">
@@ -2921,14 +2934,14 @@
       <c r="E117" s="13"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="9">
         <v>219</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C118" s="15">
         <v>94.913885210000004</v>
       </c>
       <c r="D118" s="9" t="s">
@@ -2937,14 +2950,14 @@
       <c r="E118" s="13"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B119" s="9">
         <v>200</v>
       </c>
-      <c r="C119" s="16">
+      <c r="C119" s="15">
         <v>31.677530650000001</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -2953,14 +2966,14 @@
       <c r="E119" s="13"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B120" s="9">
         <v>376</v>
       </c>
-      <c r="C120" s="16">
+      <c r="C120" s="15">
         <v>23.814817560000002</v>
       </c>
       <c r="D120" s="9" t="s">
@@ -2969,14 +2982,14 @@
       <c r="E120" s="13"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="9">
         <v>220</v>
       </c>
-      <c r="C121" s="16">
+      <c r="C121" s="15">
         <v>88.542450149999993</v>
       </c>
       <c r="D121" s="9" t="s">
@@ -2985,14 +2998,14 @@
       <c r="E121" s="13"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B122" s="9">
         <v>222</v>
       </c>
-      <c r="C122" s="16">
+      <c r="C122" s="15">
         <v>55.45832145</v>
       </c>
       <c r="D122" s="9" t="s">
@@ -3001,14 +3014,14 @@
       <c r="E122" s="13"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B123" s="9">
         <v>245</v>
       </c>
-      <c r="C123" s="16">
+      <c r="C123" s="15">
         <v>35.209330979999997</v>
       </c>
       <c r="D123" s="9" t="s">
@@ -3017,14 +3030,14 @@
       <c r="E123" s="13"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B124" s="9">
         <v>203</v>
       </c>
-      <c r="C124" s="16">
+      <c r="C124" s="15">
         <v>59.600495309999999</v>
       </c>
       <c r="D124" s="9" t="s">
@@ -3033,14 +3046,14 @@
       <c r="E124" s="13"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B125" s="9">
         <v>198</v>
       </c>
-      <c r="C125" s="16">
+      <c r="C125" s="15">
         <v>70.402912760000007</v>
       </c>
       <c r="D125" s="9" t="s">
@@ -3049,14 +3062,14 @@
       <c r="E125" s="13"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B126" s="9">
         <v>233</v>
       </c>
-      <c r="C126" s="16">
+      <c r="C126" s="15">
         <v>33.089039820000004</v>
       </c>
       <c r="D126" s="9" t="s">
@@ -3065,14 +3078,14 @@
       <c r="E126" s="13"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B127" s="9">
         <v>198</v>
       </c>
-      <c r="C127" s="16">
+      <c r="C127" s="15">
         <v>14.3313215</v>
       </c>
       <c r="D127" s="9" t="s">
@@ -3081,14 +3094,14 @@
       <c r="E127" s="13"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B128" s="9">
         <v>243</v>
       </c>
-      <c r="C128" s="16">
+      <c r="C128" s="15">
         <v>27.617331879999998</v>
       </c>
       <c r="D128" s="9" t="s">
@@ -3097,14 +3110,14 @@
       <c r="E128" s="13"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="9">
         <v>347</v>
       </c>
-      <c r="C129" s="16">
+      <c r="C129" s="15">
         <v>39.531492299999996</v>
       </c>
       <c r="D129" s="9" t="s">
@@ -3113,14 +3126,14 @@
       <c r="E129" s="13"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="9">
         <v>200</v>
       </c>
-      <c r="C130" s="16">
+      <c r="C130" s="15">
         <v>51.633943410000001</v>
       </c>
       <c r="D130" s="9" t="s">
@@ -3129,14 +3142,14 @@
       <c r="E130" s="13"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B131" s="9">
         <v>194</v>
       </c>
-      <c r="C131" s="16">
+      <c r="C131" s="15">
         <v>9.6668283860000006</v>
       </c>
       <c r="D131" s="9" t="s">
@@ -3145,14 +3158,14 @@
       <c r="E131" s="13"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B132" s="9">
         <v>199</v>
       </c>
-      <c r="C132" s="16">
+      <c r="C132" s="15">
         <v>26.567284489999999</v>
       </c>
       <c r="D132" s="9" t="s">
@@ -3161,14 +3174,14 @@
       <c r="E132" s="13"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B133" s="9">
         <v>225</v>
       </c>
-      <c r="C133" s="16">
+      <c r="C133" s="15">
         <v>57.711225149999997</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -3177,14 +3190,14 @@
       <c r="E133" s="13"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B134" s="9">
         <v>353</v>
       </c>
-      <c r="C134" s="16">
+      <c r="C134" s="15">
         <v>36.596522520000001</v>
       </c>
       <c r="D134" s="9" t="s">
@@ -3193,14 +3206,14 @@
       <c r="E134" s="13"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B135" s="9">
         <v>297</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C135" s="15">
         <v>84.063251050000005</v>
       </c>
       <c r="D135" s="9" t="s">
@@ -3209,14 +3222,14 @@
       <c r="E135" s="13"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B136" s="9">
         <v>275</v>
       </c>
-      <c r="C136" s="16">
+      <c r="C136" s="15">
         <v>98.47348169</v>
       </c>
       <c r="D136" s="9" t="s">
@@ -3225,14 +3238,14 @@
       <c r="E136" s="13"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="9">
         <v>257</v>
       </c>
-      <c r="C137" s="16">
+      <c r="C137" s="15">
         <v>46.2326902</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -3241,14 +3254,14 @@
       <c r="E137" s="13"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B138" s="9">
         <v>200</v>
       </c>
-      <c r="C138" s="16">
+      <c r="C138" s="15">
         <v>6.0072551809999997</v>
       </c>
       <c r="D138" s="9" t="s">
@@ -3257,14 +3270,14 @@
       <c r="E138" s="13"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B139" s="9">
         <v>245</v>
       </c>
-      <c r="C139" s="16">
+      <c r="C139" s="15">
         <v>16.434251719999999</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -3273,14 +3286,14 @@
       <c r="E139" s="13"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="9">
         <v>247</v>
       </c>
-      <c r="C140" s="16">
+      <c r="C140" s="15">
         <v>69.811004319999995</v>
       </c>
       <c r="D140" s="9" t="s">
@@ -3289,14 +3302,14 @@
       <c r="E140" s="13"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B141" s="9">
         <v>194</v>
       </c>
-      <c r="C141" s="16">
+      <c r="C141" s="15">
         <v>47.490745130000001</v>
       </c>
       <c r="D141" s="9" t="s">
@@ -3305,14 +3318,14 @@
       <c r="E141" s="13"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B142" s="9">
         <v>219</v>
       </c>
-      <c r="C142" s="16">
+      <c r="C142" s="15">
         <v>65.619464809999997</v>
       </c>
       <c r="D142" s="9" t="s">
@@ -3321,14 +3334,14 @@
       <c r="E142" s="13"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B143" s="9">
         <v>229</v>
       </c>
-      <c r="C143" s="16">
+      <c r="C143" s="15">
         <v>52.162691469999999</v>
       </c>
       <c r="D143" s="9" t="s">
@@ -3337,14 +3350,14 @@
       <c r="E143" s="13"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B144" s="9">
         <v>254</v>
       </c>
-      <c r="C144" s="16">
+      <c r="C144" s="15">
         <v>17.86716127</v>
       </c>
       <c r="D144" s="9" t="s">
@@ -3353,14 +3366,14 @@
       <c r="E144" s="13"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B145" s="9">
         <v>207</v>
       </c>
-      <c r="C145" s="16">
+      <c r="C145" s="15">
         <v>99.494181999999995</v>
       </c>
       <c r="D145" s="9" t="s">
@@ -3369,14 +3382,14 @@
       <c r="E145" s="13"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B146" s="9">
         <v>202</v>
       </c>
-      <c r="C146" s="16">
+      <c r="C146" s="15">
         <v>101.84550350000001</v>
       </c>
       <c r="D146" s="9" t="s">
@@ -3385,14 +3398,14 @@
       <c r="E146" s="13"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B147" s="9">
         <v>201</v>
       </c>
-      <c r="C147" s="16">
+      <c r="C147" s="15">
         <v>15.86112833</v>
       </c>
       <c r="D147" s="9" t="s">
@@ -3401,14 +3414,14 @@
       <c r="E147" s="13"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B148" s="9">
         <v>285</v>
       </c>
-      <c r="C148" s="16">
+      <c r="C148" s="15">
         <v>95.083855330000006</v>
       </c>
       <c r="D148" s="9" t="s">
@@ -3417,14 +3430,14 @@
       <c r="E148" s="13"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B149" s="9">
         <v>212</v>
       </c>
-      <c r="C149" s="16">
+      <c r="C149" s="15">
         <v>88.184079299999993</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -3433,14 +3446,14 @@
       <c r="E149" s="13"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="9">
         <v>257</v>
       </c>
-      <c r="C150" s="16">
+      <c r="C150" s="15">
         <v>61.157885370000002</v>
       </c>
       <c r="D150" s="9" t="s">
@@ -3449,14 +3462,14 @@
       <c r="E150" s="13"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="9">
         <v>202</v>
       </c>
-      <c r="C151" s="16">
+      <c r="C151" s="15">
         <v>61.330581850000002</v>
       </c>
       <c r="D151" s="9" t="s">
@@ -3465,14 +3478,14 @@
       <c r="E151" s="13"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B152" s="9">
         <v>226</v>
       </c>
-      <c r="C152" s="16">
+      <c r="C152" s="15">
         <v>61.832848339999998</v>
       </c>
       <c r="D152" s="9" t="s">
@@ -3481,14 +3494,14 @@
       <c r="E152" s="13"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="9">
         <v>282</v>
       </c>
-      <c r="C153" s="16">
+      <c r="C153" s="15">
         <v>29.131605780000001</v>
       </c>
       <c r="D153" s="9" t="s">
@@ -3497,14 +3510,14 @@
       <c r="E153" s="13"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B154" s="9">
         <v>259</v>
       </c>
-      <c r="C154" s="16">
+      <c r="C154" s="15">
         <v>58.122509559999997</v>
       </c>
       <c r="D154" s="9" t="s">
@@ -3513,14 +3526,14 @@
       <c r="E154" s="13"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="9">
         <v>384</v>
       </c>
-      <c r="C155" s="16">
+      <c r="C155" s="15">
         <v>11.91600184</v>
       </c>
       <c r="D155" s="9" t="s">
@@ -3529,14 +3542,14 @@
       <c r="E155" s="13"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B156" s="9">
         <v>237</v>
       </c>
-      <c r="C156" s="16">
+      <c r="C156" s="15">
         <v>28.896646820000001</v>
       </c>
       <c r="D156" s="9" t="s">
@@ -3545,14 +3558,14 @@
       <c r="E156" s="13"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B157" s="9">
         <v>200</v>
       </c>
-      <c r="C157" s="16">
+      <c r="C157" s="15">
         <v>50.293738470000001</v>
       </c>
       <c r="D157" s="9" t="s">
@@ -3561,14 +3574,14 @@
       <c r="E157" s="13"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B158" s="9">
         <v>279</v>
       </c>
-      <c r="C158" s="16">
+      <c r="C158" s="15">
         <v>26.904446480000001</v>
       </c>
       <c r="D158" s="9" t="s">
@@ -3577,14 +3590,14 @@
       <c r="E158" s="13"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B159" s="9">
         <v>318</v>
       </c>
-      <c r="C159" s="16">
+      <c r="C159" s="15">
         <v>64.957160479999999</v>
       </c>
       <c r="D159" s="9" t="s">
@@ -3593,14 +3606,14 @@
       <c r="E159" s="13"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B160" s="9">
         <v>235</v>
       </c>
-      <c r="C160" s="16">
+      <c r="C160" s="15">
         <v>30.327838889999999</v>
       </c>
       <c r="D160" s="9" t="s">
@@ -3609,14 +3622,14 @@
       <c r="E160" s="13"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B161" s="9">
         <v>333</v>
       </c>
-      <c r="C161" s="16">
+      <c r="C161" s="15">
         <v>61.979561750000002</v>
       </c>
       <c r="D161" s="9" t="s">
@@ -3625,14 +3638,14 @@
       <c r="E161" s="13"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="9">
         <v>286</v>
       </c>
-      <c r="C162" s="16">
+      <c r="C162" s="15">
         <v>23.316208459999999</v>
       </c>
       <c r="D162" s="9" t="s">
@@ -3641,14 +3654,14 @@
       <c r="E162" s="13"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="9">
         <v>200</v>
       </c>
-      <c r="C163" s="16">
+      <c r="C163" s="15">
         <v>74.263893120000006</v>
       </c>
       <c r="D163" s="9" t="s">
@@ -3657,14 +3670,14 @@
       <c r="E163" s="13"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B164" s="9">
         <v>196</v>
       </c>
-      <c r="C164" s="16">
+      <c r="C164" s="15">
         <v>99.224721779999996</v>
       </c>
       <c r="D164" s="9" t="s">
@@ -3673,14 +3686,14 @@
       <c r="E164" s="13"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B165" s="9">
         <v>204</v>
       </c>
-      <c r="C165" s="16">
+      <c r="C165" s="15">
         <v>89.585709489999999</v>
       </c>
       <c r="D165" s="9" t="s">
@@ -3689,14 +3702,14 @@
       <c r="E165" s="13"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B166" s="9">
         <v>200</v>
       </c>
-      <c r="C166" s="16">
+      <c r="C166" s="15">
         <v>75.21345685</v>
       </c>
       <c r="D166" s="9" t="s">
@@ -3705,14 +3718,14 @@
       <c r="E166" s="13"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B167" s="9">
         <v>196</v>
       </c>
-      <c r="C167" s="16">
+      <c r="C167" s="15">
         <v>88.787213809999997</v>
       </c>
       <c r="D167" s="9" t="s">
@@ -3721,14 +3734,14 @@
       <c r="E167" s="13"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B168" s="9">
         <v>379</v>
       </c>
-      <c r="C168" s="16">
+      <c r="C168" s="15">
         <v>22.117149009999999</v>
       </c>
       <c r="D168" s="9" t="s">
@@ -3737,14 +3750,14 @@
       <c r="E168" s="13"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B169" s="9">
         <v>240</v>
       </c>
-      <c r="C169" s="16">
+      <c r="C169" s="15">
         <v>30.617910290000001</v>
       </c>
       <c r="D169" s="9" t="s">
@@ -3753,14 +3766,14 @@
       <c r="E169" s="13"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B170" s="9">
         <v>344</v>
       </c>
-      <c r="C170" s="16">
+      <c r="C170" s="15">
         <v>39.100746239999999</v>
       </c>
       <c r="D170" s="9" t="s">
@@ -3769,14 +3782,14 @@
       <c r="E170" s="13"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B171" s="9">
         <v>282</v>
       </c>
-      <c r="C171" s="16">
+      <c r="C171" s="15">
         <v>92.495961910000005</v>
       </c>
       <c r="D171" s="9" t="s">
@@ -3785,14 +3798,14 @@
       <c r="E171" s="13"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B172" s="9">
         <v>376</v>
       </c>
-      <c r="C172" s="16">
+      <c r="C172" s="15">
         <v>14.15829827</v>
       </c>
       <c r="D172" s="9" t="s">
@@ -3801,14 +3814,14 @@
       <c r="E172" s="13"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B173" s="9">
         <v>232</v>
       </c>
-      <c r="C173" s="16">
+      <c r="C173" s="15">
         <v>20.69579083</v>
       </c>
       <c r="D173" s="9" t="s">
@@ -3817,14 +3830,14 @@
       <c r="E173" s="13"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B174" s="9">
         <v>223</v>
       </c>
-      <c r="C174" s="16">
+      <c r="C174" s="15">
         <v>66.738039060000006</v>
       </c>
       <c r="D174" s="9" t="s">
@@ -3833,14 +3846,14 @@
       <c r="E174" s="13"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B175" s="9">
         <v>369</v>
       </c>
-      <c r="C175" s="16">
+      <c r="C175" s="15">
         <v>27.355617129999999</v>
       </c>
       <c r="D175" s="9" t="s">
@@ -3849,14 +3862,14 @@
       <c r="E175" s="13"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B176" s="9">
         <v>323</v>
       </c>
-      <c r="C176" s="16">
+      <c r="C176" s="15">
         <v>56.335406069999998</v>
       </c>
       <c r="D176" s="9" t="s">
@@ -3865,14 +3878,14 @@
       <c r="E176" s="13"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B177" s="9">
         <v>198</v>
       </c>
-      <c r="C177" s="16">
+      <c r="C177" s="15">
         <v>17.639174140000002</v>
       </c>
       <c r="D177" s="9" t="s">
@@ -3881,14 +3894,14 @@
       <c r="E177" s="13"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B178" s="9">
         <v>239</v>
       </c>
-      <c r="C178" s="16">
+      <c r="C178" s="15">
         <v>73.472076000000001</v>
       </c>
       <c r="D178" s="9" t="s">
@@ -3897,14 +3910,14 @@
       <c r="E178" s="13"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B179" s="9">
         <v>221</v>
       </c>
-      <c r="C179" s="16">
+      <c r="C179" s="15">
         <v>73.732458030000004</v>
       </c>
       <c r="D179" s="9" t="s">
@@ -3913,14 +3926,14 @@
       <c r="E179" s="13"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B180" s="9">
         <v>244</v>
       </c>
-      <c r="C180" s="16">
+      <c r="C180" s="15">
         <v>42.569230320000003</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -3929,14 +3942,14 @@
       <c r="E180" s="13"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B181" s="9">
         <v>342</v>
       </c>
-      <c r="C181" s="16">
+      <c r="C181" s="15">
         <v>50.336903990000003</v>
       </c>
       <c r="D181" s="9" t="s">
@@ -3945,14 +3958,14 @@
       <c r="E181" s="13"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B182" s="9">
         <v>282</v>
       </c>
-      <c r="C182" s="16">
+      <c r="C182" s="15">
         <v>15.25803249</v>
       </c>
       <c r="D182" s="9" t="s">
@@ -3961,14 +3974,14 @@
       <c r="E182" s="13"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B183" s="9">
         <v>204</v>
       </c>
-      <c r="C183" s="16">
+      <c r="C183" s="15">
         <v>15.521355939999999</v>
       </c>
       <c r="D183" s="9" t="s">
@@ -3977,14 +3990,14 @@
       <c r="E183" s="13"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B184" s="9">
         <v>220</v>
       </c>
-      <c r="C184" s="16">
+      <c r="C184" s="15">
         <v>75.148144639999998</v>
       </c>
       <c r="D184" s="9" t="s">
@@ -3993,14 +4006,14 @@
       <c r="E184" s="13"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B185" s="9">
         <v>222</v>
       </c>
-      <c r="C185" s="16">
+      <c r="C185" s="15">
         <v>77.921962429999994</v>
       </c>
       <c r="D185" s="9" t="s">
@@ -4009,14 +4022,14 @@
       <c r="E185" s="13"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B186" s="9">
         <v>313</v>
       </c>
-      <c r="C186" s="16">
+      <c r="C186" s="15">
         <v>64.532734640000001</v>
       </c>
       <c r="D186" s="9" t="s">
@@ -4025,14 +4038,14 @@
       <c r="E186" s="13"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B187" s="9">
         <v>217</v>
       </c>
-      <c r="C187" s="16">
+      <c r="C187" s="15">
         <v>76.854865619999998</v>
       </c>
       <c r="D187" s="9" t="s">
@@ -4041,14 +4054,14 @@
       <c r="E187" s="13"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B188" s="9">
         <v>272</v>
       </c>
-      <c r="C188" s="16">
+      <c r="C188" s="15">
         <v>24.298764439999999</v>
       </c>
       <c r="D188" s="9" t="s">
@@ -4057,14 +4070,14 @@
       <c r="E188" s="13"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B189" s="9">
         <v>199</v>
       </c>
-      <c r="C189" s="16">
+      <c r="C189" s="15">
         <v>104.30636490000001</v>
       </c>
       <c r="D189" s="9" t="s">
@@ -4073,14 +4086,14 @@
       <c r="E189" s="13"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B190" s="9">
         <v>213</v>
       </c>
-      <c r="C190" s="16">
+      <c r="C190" s="15">
         <v>52.354342170000002</v>
       </c>
       <c r="D190" s="9" t="s">
@@ -4089,14 +4102,14 @@
       <c r="E190" s="13"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B191" s="9">
         <v>278</v>
       </c>
-      <c r="C191" s="16">
+      <c r="C191" s="15">
         <v>33.798776050000001</v>
       </c>
       <c r="D191" s="9" t="s">
@@ -4105,14 +4118,14 @@
       <c r="E191" s="13"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B192" s="9">
         <v>277</v>
       </c>
-      <c r="C192" s="16">
+      <c r="C192" s="15">
         <v>91.526054299999998</v>
       </c>
       <c r="D192" s="9" t="s">
@@ -4121,14 +4134,14 @@
       <c r="E192" s="13"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B193" s="9">
         <v>242</v>
       </c>
-      <c r="C193" s="16">
+      <c r="C193" s="15">
         <v>6.2075181239999999</v>
       </c>
       <c r="D193" s="9" t="s">
@@ -4137,14 +4150,14 @@
       <c r="E193" s="13"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B194" s="9">
         <v>233</v>
       </c>
-      <c r="C194" s="16">
+      <c r="C194" s="15">
         <v>80.104896580000002</v>
       </c>
       <c r="D194" s="9" t="s">
@@ -4153,14 +4166,14 @@
       <c r="E194" s="13"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B195" s="9">
         <v>198</v>
       </c>
-      <c r="C195" s="16">
+      <c r="C195" s="15">
         <v>27.452818990000001</v>
       </c>
       <c r="D195" s="9" t="s">
@@ -4169,14 +4182,14 @@
       <c r="E195" s="13"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B196" s="9">
         <v>199</v>
       </c>
-      <c r="C196" s="16">
+      <c r="C196" s="15">
         <v>26.29205996</v>
       </c>
       <c r="D196" s="9" t="s">
@@ -4185,14 +4198,14 @@
       <c r="E196" s="13"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B197" s="9">
         <v>267</v>
       </c>
-      <c r="C197" s="16">
+      <c r="C197" s="15">
         <v>26.203790810000001</v>
       </c>
       <c r="D197" s="9" t="s">
@@ -4201,14 +4214,14 @@
       <c r="E197" s="13"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B198" s="9">
         <v>218</v>
       </c>
-      <c r="C198" s="16">
+      <c r="C198" s="15">
         <v>91.326570200000006</v>
       </c>
       <c r="D198" s="9" t="s">
@@ -4217,14 +4230,14 @@
       <c r="E198" s="13"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B199" s="9">
         <v>200</v>
       </c>
-      <c r="C199" s="16">
+      <c r="C199" s="15">
         <v>41.646342230000002</v>
       </c>
       <c r="D199" s="9" t="s">
@@ -4233,14 +4246,14 @@
       <c r="E199" s="13"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B200" s="9">
         <v>267</v>
       </c>
-      <c r="C200" s="16">
+      <c r="C200" s="15">
         <v>99.857413550000004</v>
       </c>
       <c r="D200" s="9" t="s">
@@ -4249,14 +4262,14 @@
       <c r="E200" s="13"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B201" s="9">
         <v>226</v>
       </c>
-      <c r="C201" s="16">
+      <c r="C201" s="15">
         <v>83.065720060000004</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -4265,14 +4278,14 @@
       <c r="E201" s="13"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B202" s="9">
         <v>381</v>
       </c>
-      <c r="C202" s="16">
+      <c r="C202" s="15">
         <v>9.0746198979999999</v>
       </c>
       <c r="D202" s="9" t="s">
@@ -4281,14 +4294,14 @@
       <c r="E202" s="13"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="9">
         <v>274</v>
       </c>
-      <c r="C203" s="16">
+      <c r="C203" s="15">
         <v>12.80334371</v>
       </c>
       <c r="D203" s="9" t="s">
@@ -4297,14 +4310,14 @@
       <c r="E203" s="13"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B204" s="9">
         <v>206</v>
       </c>
-      <c r="C204" s="16">
+      <c r="C204" s="15">
         <v>48.501853670000003</v>
       </c>
       <c r="D204" s="9" t="s">
@@ -4313,14 +4326,14 @@
       <c r="E204" s="13"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="9">
         <v>198</v>
       </c>
-      <c r="C205" s="16">
+      <c r="C205" s="15">
         <v>82.939492860000001</v>
       </c>
       <c r="D205" s="9" t="s">
@@ -4329,14 +4342,14 @@
       <c r="E205" s="13"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="9">
         <v>259</v>
       </c>
-      <c r="C206" s="16">
+      <c r="C206" s="15">
         <v>46.010541439999997</v>
       </c>
       <c r="D206" s="9" t="s">
@@ -4345,14 +4358,14 @@
       <c r="E206" s="13"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B207" s="9">
         <v>230</v>
       </c>
-      <c r="C207" s="16">
+      <c r="C207" s="15">
         <v>65.645288050000005</v>
       </c>
       <c r="D207" s="9" t="s">
@@ -4361,14 +4374,14 @@
       <c r="E207" s="13"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B208" s="9">
         <v>366</v>
       </c>
-      <c r="C208" s="16">
+      <c r="C208" s="15">
         <v>22.74831687</v>
       </c>
       <c r="D208" s="9" t="s">
@@ -4377,14 +4390,14 @@
       <c r="E208" s="13"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B209" s="9">
         <v>288</v>
       </c>
-      <c r="C209" s="16">
+      <c r="C209" s="15">
         <v>89.05840302</v>
       </c>
       <c r="D209" s="9" t="s">
@@ -4393,14 +4406,14 @@
       <c r="E209" s="13"/>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B210" s="9">
         <v>323</v>
       </c>
-      <c r="C210" s="16">
+      <c r="C210" s="15">
         <v>57.15806705</v>
       </c>
       <c r="D210" s="9" t="s">
@@ -4409,14 +4422,14 @@
       <c r="E210" s="13"/>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B211" s="9">
         <v>202</v>
       </c>
-      <c r="C211" s="16">
+      <c r="C211" s="15">
         <v>95.587656080000002</v>
       </c>
       <c r="D211" s="9" t="s">
@@ -4425,14 +4438,14 @@
       <c r="E211" s="13"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B212" s="9">
         <v>203</v>
       </c>
-      <c r="C212" s="16">
+      <c r="C212" s="15">
         <v>100.3347196</v>
       </c>
       <c r="D212" s="9" t="s">
@@ -4441,14 +4454,14 @@
       <c r="E212" s="13"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B213" s="9">
         <v>317</v>
       </c>
-      <c r="C213" s="16">
+      <c r="C213" s="15">
         <v>68.959621609999999</v>
       </c>
       <c r="D213" s="9" t="s">
@@ -4457,14 +4470,14 @@
       <c r="E213" s="13"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B214" s="9">
         <v>260</v>
       </c>
-      <c r="C214" s="16">
+      <c r="C214" s="15">
         <v>54.609646689999998</v>
       </c>
       <c r="D214" s="9" t="s">
@@ -4473,14 +4486,14 @@
       <c r="E214" s="13"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B215" s="9">
         <v>389</v>
       </c>
-      <c r="C215" s="16">
+      <c r="C215" s="15">
         <v>9.8594443819999995</v>
       </c>
       <c r="D215" s="9" t="s">
@@ -4489,14 +4502,14 @@
       <c r="E215" s="13"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B216" s="9">
         <v>247</v>
       </c>
-      <c r="C216" s="16">
+      <c r="C216" s="15">
         <v>15.888474499999999</v>
       </c>
       <c r="D216" s="9" t="s">
@@ -4505,14 +4518,14 @@
       <c r="E216" s="13"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B217" s="9">
         <v>219</v>
       </c>
-      <c r="C217" s="16">
+      <c r="C217" s="15">
         <v>59.347106410000002</v>
       </c>
       <c r="D217" s="9" t="s">
@@ -4521,14 +4534,14 @@
       <c r="E217" s="13"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B218" s="9">
         <v>281</v>
       </c>
-      <c r="C218" s="16">
+      <c r="C218" s="15">
         <v>86.008619499999995</v>
       </c>
       <c r="D218" s="9" t="s">
@@ -4537,14 +4550,14 @@
       <c r="E218" s="13"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B219" s="9">
         <v>392</v>
       </c>
-      <c r="C219" s="16">
+      <c r="C219" s="15">
         <v>9.8331732540000001</v>
       </c>
       <c r="D219" s="9" t="s">
@@ -4553,14 +4566,14 @@
       <c r="E219" s="13"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B220" s="9">
         <v>223</v>
       </c>
-      <c r="C220" s="16">
+      <c r="C220" s="15">
         <v>47.670068059999998</v>
       </c>
       <c r="D220" s="9" t="s">
@@ -4569,14 +4582,14 @@
       <c r="E220" s="13"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B221" s="9">
         <v>242</v>
       </c>
-      <c r="C221" s="16">
+      <c r="C221" s="15">
         <v>12.88766328</v>
       </c>
       <c r="D221" s="9" t="s">
@@ -4585,14 +4598,14 @@
       <c r="E221" s="13"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B222" s="9">
         <v>242</v>
       </c>
-      <c r="C222" s="16">
+      <c r="C222" s="15">
         <v>9.990216083</v>
       </c>
       <c r="D222" s="9" t="s">
@@ -4601,14 +4614,14 @@
       <c r="E222" s="13"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B223" s="9">
         <v>372</v>
       </c>
-      <c r="C223" s="16">
+      <c r="C223" s="15">
         <v>21.767288099999998</v>
       </c>
       <c r="D223" s="9" t="s">
@@ -4617,14 +4630,14 @@
       <c r="E223" s="13"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B224" s="9">
         <v>196</v>
       </c>
-      <c r="C224" s="16">
+      <c r="C224" s="15">
         <v>67.308858200000003</v>
       </c>
       <c r="D224" s="9" t="s">
@@ -4633,14 +4646,14 @@
       <c r="E224" s="13"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B225" s="9">
         <v>214</v>
       </c>
-      <c r="C225" s="16">
+      <c r="C225" s="15">
         <v>84.377074300000004</v>
       </c>
       <c r="D225" s="9" t="s">
@@ -4649,14 +4662,14 @@
       <c r="E225" s="13"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B226" s="9">
         <v>224</v>
       </c>
-      <c r="C226" s="16">
+      <c r="C226" s="15">
         <v>52.090196349999999</v>
       </c>
       <c r="D226" s="9" t="s">
@@ -4665,14 +4678,14 @@
       <c r="E226" s="13"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B227" s="9">
         <v>284</v>
       </c>
-      <c r="C227" s="16">
+      <c r="C227" s="15">
         <v>11.65357369</v>
       </c>
       <c r="D227" s="9" t="s">
@@ -4681,14 +4694,14 @@
       <c r="E227" s="13"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B228" s="9">
         <v>341</v>
       </c>
-      <c r="C228" s="16">
+      <c r="C228" s="15">
         <v>42.868188439999997</v>
       </c>
       <c r="D228" s="9" t="s">
@@ -4697,14 +4710,14 @@
       <c r="E228" s="13"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B229" s="9">
         <v>214</v>
       </c>
-      <c r="C229" s="16">
+      <c r="C229" s="15">
         <v>99.056136269999996</v>
       </c>
       <c r="D229" s="9" t="s">
@@ -4713,14 +4726,14 @@
       <c r="E229" s="13"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B230" s="9">
         <v>315</v>
       </c>
-      <c r="C230" s="16">
+      <c r="C230" s="15">
         <v>59.073655530000003</v>
       </c>
       <c r="D230" s="9" t="s">
@@ -4729,14 +4742,14 @@
       <c r="E230" s="13"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B231" s="9">
         <v>317</v>
       </c>
-      <c r="C231" s="16">
+      <c r="C231" s="15">
         <v>63.84809036</v>
       </c>
       <c r="D231" s="9" t="s">
@@ -4745,14 +4758,14 @@
       <c r="E231" s="13"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B232" s="9">
         <v>259</v>
       </c>
-      <c r="C232" s="16">
+      <c r="C232" s="15">
         <v>40.694600129999998</v>
       </c>
       <c r="D232" s="9" t="s">
@@ -4761,14 +4774,14 @@
       <c r="E232" s="13"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B233" s="9">
         <v>285</v>
       </c>
-      <c r="C233" s="16">
+      <c r="C233" s="15">
         <v>17.402475429999999</v>
       </c>
       <c r="D233" s="9" t="s">
@@ -4777,14 +4790,14 @@
       <c r="E233" s="13"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B234" s="9">
         <v>242</v>
       </c>
-      <c r="C234" s="16">
+      <c r="C234" s="15">
         <v>22.722596559999999</v>
       </c>
       <c r="D234" s="9" t="s">
@@ -4793,14 +4806,14 @@
       <c r="E234" s="13"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B235" s="9">
         <v>242</v>
       </c>
-      <c r="C235" s="16">
+      <c r="C235" s="15">
         <v>62.522910289999999</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -4809,14 +4822,14 @@
       <c r="E235" s="13"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B236" s="9">
         <v>258</v>
       </c>
-      <c r="C236" s="16">
+      <c r="C236" s="15">
         <v>43.486420750000001</v>
       </c>
       <c r="D236" s="9" t="s">
@@ -4825,14 +4838,14 @@
       <c r="E236" s="13"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B237" s="9">
         <v>248</v>
       </c>
-      <c r="C237" s="16">
+      <c r="C237" s="15">
         <v>65.184733179999995</v>
       </c>
       <c r="D237" s="9" t="s">
@@ -4841,14 +4854,14 @@
       <c r="E237" s="13"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B238" s="9">
         <v>345</v>
       </c>
-      <c r="C238" s="16">
+      <c r="C238" s="15">
         <v>44.468879549999997</v>
       </c>
       <c r="D238" s="9" t="s">
@@ -4857,14 +4870,14 @@
       <c r="E238" s="13"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B239" s="9">
         <v>301</v>
       </c>
-      <c r="C239" s="16">
+      <c r="C239" s="15">
         <v>5.163421703</v>
       </c>
       <c r="D239" s="9" t="s">
@@ -4873,14 +4886,14 @@
       <c r="E239" s="13"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B240" s="9">
         <v>336</v>
       </c>
-      <c r="C240" s="16">
+      <c r="C240" s="15">
         <v>56.830847079999998</v>
       </c>
       <c r="D240" s="9" t="s">
@@ -4889,14 +4902,14 @@
       <c r="E240" s="13"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B241" s="9">
         <v>262</v>
       </c>
-      <c r="C241" s="16">
+      <c r="C241" s="15">
         <v>42.194185580000003</v>
       </c>
       <c r="D241" s="9" t="s">
@@ -4905,14 +4918,14 @@
       <c r="E241" s="13"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B242" s="9">
         <v>229</v>
       </c>
-      <c r="C242" s="16">
+      <c r="C242" s="15">
         <v>43.939296079999998</v>
       </c>
       <c r="D242" s="9" t="s">
@@ -4921,14 +4934,14 @@
       <c r="E242" s="13"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B243" s="9">
         <v>248</v>
       </c>
-      <c r="C243" s="16">
+      <c r="C243" s="15">
         <v>49.565221819999998</v>
       </c>
       <c r="D243" s="9" t="s">
@@ -4937,14 +4950,14 @@
       <c r="E243" s="13"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B244" s="9">
         <v>305</v>
       </c>
-      <c r="C244" s="16">
+      <c r="C244" s="15">
         <v>74.291806249999993</v>
       </c>
       <c r="D244" s="9" t="s">
@@ -4953,14 +4966,14 @@
       <c r="E244" s="13"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B245" s="9">
         <v>217</v>
       </c>
-      <c r="C245" s="16">
+      <c r="C245" s="15">
         <v>73.922859239999994</v>
       </c>
       <c r="D245" s="9" t="s">
@@ -4969,14 +4982,14 @@
       <c r="E245" s="13"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B246" s="9">
         <v>203</v>
       </c>
-      <c r="C246" s="16">
+      <c r="C246" s="15">
         <v>23.514878299999999</v>
       </c>
       <c r="D246" s="9" t="s">
@@ -4985,14 +4998,14 @@
       <c r="E246" s="13"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B247" s="9">
         <v>236</v>
       </c>
-      <c r="C247" s="16">
+      <c r="C247" s="15">
         <v>25.082318610000002</v>
       </c>
       <c r="D247" s="9" t="s">
@@ -5001,14 +5014,14 @@
       <c r="E247" s="13"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="9">
         <v>283</v>
       </c>
-      <c r="C248" s="16">
+      <c r="C248" s="15">
         <v>21.31917533</v>
       </c>
       <c r="D248" s="9" t="s">
@@ -5017,14 +5030,14 @@
       <c r="E248" s="13"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="9">
         <v>216</v>
       </c>
-      <c r="C249" s="16">
+      <c r="C249" s="15">
         <v>92.492649490000005</v>
       </c>
       <c r="D249" s="9" t="s">
@@ -5033,14 +5046,14 @@
       <c r="E249" s="13"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B250" s="9">
         <v>314</v>
       </c>
-      <c r="C250" s="16">
+      <c r="C250" s="15">
         <v>73.023039190000006</v>
       </c>
       <c r="D250" s="9" t="s">
@@ -5049,14 +5062,14 @@
       <c r="E250" s="13"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B251" s="9">
         <v>225</v>
       </c>
-      <c r="C251" s="16">
+      <c r="C251" s="15">
         <v>88.448706220000005</v>
       </c>
       <c r="D251" s="9" t="s">
@@ -5065,14 +5078,14 @@
       <c r="E251" s="13"/>
       <c r="F251" s="4"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B252" s="9">
         <v>267</v>
       </c>
-      <c r="C252" s="16">
+      <c r="C252" s="15">
         <v>96.107184910000001</v>
       </c>
       <c r="D252" s="9" t="s">
@@ -5081,14 +5094,14 @@
       <c r="E252" s="13"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B253" s="9">
         <v>288</v>
       </c>
-      <c r="C253" s="16">
+      <c r="C253" s="15">
         <v>83.210334590000002</v>
       </c>
       <c r="D253" s="9" t="s">
@@ -5097,14 +5110,14 @@
       <c r="E253" s="13"/>
       <c r="F253" s="4"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B254" s="9">
         <v>201</v>
       </c>
-      <c r="C254" s="16">
+      <c r="C254" s="15">
         <v>94.76050979</v>
       </c>
       <c r="D254" s="9" t="s">
@@ -5113,14 +5126,14 @@
       <c r="E254" s="13"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B255" s="9">
         <v>244</v>
       </c>
-      <c r="C255" s="16">
+      <c r="C255" s="15">
         <v>24.899725230000001</v>
       </c>
       <c r="D255" s="9" t="s">
@@ -5129,14 +5142,14 @@
       <c r="E255" s="13"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B256" s="9">
         <v>199</v>
       </c>
-      <c r="C256" s="16">
+      <c r="C256" s="15">
         <v>34.722045360000003</v>
       </c>
       <c r="D256" s="9" t="s">
@@ -5145,14 +5158,14 @@
       <c r="E256" s="13"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B257" s="9">
         <v>376</v>
       </c>
-      <c r="C257" s="16">
+      <c r="C257" s="15">
         <v>27.047105810000001</v>
       </c>
       <c r="D257" s="9" t="s">
@@ -5161,14 +5174,14 @@
       <c r="E257" s="13"/>
       <c r="F257" s="4"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B258" s="9">
         <v>199</v>
       </c>
-      <c r="C258" s="16">
+      <c r="C258" s="15">
         <v>82.381924650000002</v>
       </c>
       <c r="D258" s="9" t="s">
@@ -5177,14 +5190,14 @@
       <c r="E258" s="13"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B259" s="9">
         <v>306</v>
       </c>
-      <c r="C259" s="16">
+      <c r="C259" s="15">
         <v>10.07209188</v>
       </c>
       <c r="D259" s="9" t="s">
@@ -5193,14 +5206,14 @@
       <c r="E259" s="13"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B260" s="9">
         <v>234</v>
       </c>
-      <c r="C260" s="16">
+      <c r="C260" s="15">
         <v>59.347932720000003</v>
       </c>
       <c r="D260" s="9" t="s">
@@ -5209,14 +5222,14 @@
       <c r="E260" s="13"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B261" s="9">
         <v>227</v>
       </c>
-      <c r="C261" s="16">
+      <c r="C261" s="15">
         <v>73.423685410000004</v>
       </c>
       <c r="D261" s="9" t="s">
@@ -5225,14 +5238,14 @@
       <c r="E261" s="13"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B262" s="9">
         <v>215</v>
       </c>
-      <c r="C262" s="16">
+      <c r="C262" s="15">
         <v>85.581942089999998</v>
       </c>
       <c r="D262" s="9" t="s">
@@ -5241,14 +5254,14 @@
       <c r="E262" s="13"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B263" s="9">
         <v>216</v>
       </c>
-      <c r="C263" s="16">
+      <c r="C263" s="15">
         <v>95.490784469999994</v>
       </c>
       <c r="D263" s="9" t="s">
@@ -5257,14 +5270,14 @@
       <c r="E263" s="13"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B264" s="9">
         <v>198</v>
       </c>
-      <c r="C264" s="16">
+      <c r="C264" s="15">
         <v>76.386323369999999</v>
       </c>
       <c r="D264" s="9" t="s">
@@ -5273,14 +5286,14 @@
       <c r="E264" s="13"/>
       <c r="F264" s="4"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B265" s="9">
         <v>202</v>
       </c>
-      <c r="C265" s="16">
+      <c r="C265" s="15">
         <v>5.9934283060000002</v>
       </c>
       <c r="D265" s="9" t="s">
@@ -5289,14 +5302,14 @@
       <c r="E265" s="13"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B266" s="9">
         <v>254</v>
       </c>
-      <c r="C266" s="16">
+      <c r="C266" s="15">
         <v>43.002788549999998</v>
       </c>
       <c r="D266" s="9" t="s">
@@ -5305,14 +5318,14 @@
       <c r="E266" s="13"/>
       <c r="F266" s="4"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B267" s="9">
         <v>235</v>
       </c>
-      <c r="C267" s="16">
+      <c r="C267" s="15">
         <v>48.201723080000001</v>
       </c>
       <c r="D267" s="9" t="s">
@@ -5321,14 +5334,14 @@
       <c r="E267" s="13"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B268" s="9">
         <v>228</v>
       </c>
-      <c r="C268" s="16">
+      <c r="C268" s="15">
         <v>38.748961090000002</v>
       </c>
       <c r="D268" s="9" t="s">
@@ -5337,14 +5350,14 @@
       <c r="E268" s="13"/>
       <c r="F268" s="4"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B269" s="9">
         <v>340</v>
       </c>
-      <c r="C269" s="16">
+      <c r="C269" s="15">
         <v>42.886216419999997</v>
       </c>
       <c r="D269" s="9" t="s">
@@ -5353,14 +5366,14 @@
       <c r="E269" s="13"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B270" s="9">
         <v>305</v>
       </c>
-      <c r="C270" s="16">
+      <c r="C270" s="15">
         <v>60.595023410000003</v>
       </c>
       <c r="D270" s="9" t="s">
@@ -5369,14 +5382,14 @@
       <c r="E270" s="13"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B271" s="9">
         <v>210</v>
       </c>
-      <c r="C271" s="16">
+      <c r="C271" s="15">
         <v>86.681801820000004</v>
       </c>
       <c r="D271" s="9" t="s">
@@ -5385,14 +5398,14 @@
       <c r="E271" s="13"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B272" s="9">
         <v>198</v>
       </c>
-      <c r="C272" s="16">
+      <c r="C272" s="15">
         <v>39.744668570000002</v>
       </c>
       <c r="D272" s="9" t="s">
@@ -5401,14 +5414,14 @@
       <c r="E272" s="13"/>
       <c r="F272" s="4"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B273" s="9">
         <v>207</v>
       </c>
-      <c r="C273" s="16">
+      <c r="C273" s="15">
         <v>69.837357130000001</v>
       </c>
       <c r="D273" s="9" t="s">
@@ -5417,14 +5430,14 @@
       <c r="E273" s="13"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B274" s="9">
         <v>239</v>
       </c>
-      <c r="C274" s="16">
+      <c r="C274" s="15">
         <v>27.184660860000001</v>
       </c>
       <c r="D274" s="9" t="s">
@@ -5433,14 +5446,14 @@
       <c r="E274" s="13"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B275" s="9">
         <v>230</v>
       </c>
-      <c r="C275" s="16">
+      <c r="C275" s="15">
         <v>44.764848209999997</v>
       </c>
       <c r="D275" s="9" t="s">
@@ -5449,14 +5462,14 @@
       <c r="E275" s="13"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B276" s="9">
         <v>222</v>
       </c>
-      <c r="C276" s="16">
+      <c r="C276" s="15">
         <v>71.594542029999999</v>
       </c>
       <c r="D276" s="9" t="s">
@@ -5465,14 +5478,14 @@
       <c r="E276" s="13"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B277" s="9">
         <v>226</v>
       </c>
-      <c r="C277" s="16">
+      <c r="C277" s="15">
         <v>79.203247579999996</v>
       </c>
       <c r="D277" s="9" t="s">
@@ -5481,14 +5494,14 @@
       <c r="E277" s="13"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B278" s="9">
         <v>269</v>
       </c>
-      <c r="C278" s="16">
+      <c r="C278" s="15">
         <v>30.86966761</v>
       </c>
       <c r="D278" s="9" t="s">
@@ -5497,14 +5510,14 @@
       <c r="E278" s="13"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B279" s="9">
         <v>306</v>
       </c>
-      <c r="C279" s="16">
+      <c r="C279" s="15">
         <v>74.633857340000006</v>
       </c>
       <c r="D279" s="9" t="s">
@@ -5513,14 +5526,14 @@
       <c r="E279" s="13"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B280" s="9">
         <v>225</v>
       </c>
-      <c r="C280" s="16">
+      <c r="C280" s="15">
         <v>51.36043342</v>
       </c>
       <c r="D280" s="9" t="s">
@@ -5529,14 +5542,14 @@
       <c r="E280" s="13"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B281" s="9">
         <v>239</v>
       </c>
-      <c r="C281" s="16">
+      <c r="C281" s="15">
         <v>79.088781359999999</v>
       </c>
       <c r="D281" s="9" t="s">
@@ -5545,14 +5558,14 @@
       <c r="E281" s="13"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B282" s="9">
         <v>239</v>
       </c>
-      <c r="C282" s="16">
+      <c r="C282" s="15">
         <v>40.416632280000002</v>
       </c>
       <c r="D282" s="9" t="s">
@@ -5561,14 +5574,14 @@
       <c r="E282" s="13"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B283" s="9">
         <v>213</v>
       </c>
-      <c r="C283" s="16">
+      <c r="C283" s="15">
         <v>89.963884390000004</v>
       </c>
       <c r="D283" s="9" t="s">
@@ -5577,14 +5590,14 @@
       <c r="E283" s="13"/>
       <c r="F283" s="4"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B284" s="9">
         <v>204</v>
       </c>
-      <c r="C284" s="16">
+      <c r="C284" s="15">
         <v>91.038698319999995</v>
       </c>
       <c r="D284" s="9" t="s">
@@ -5593,14 +5606,14 @@
       <c r="E284" s="13"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B285" s="9">
         <v>201</v>
       </c>
-      <c r="C285" s="16">
+      <c r="C285" s="15">
         <v>33.378299650000002</v>
       </c>
       <c r="D285" s="9" t="s">
@@ -5609,14 +5622,14 @@
       <c r="E285" s="13"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B286" s="9">
         <v>244</v>
       </c>
-      <c r="C286" s="16">
+      <c r="C286" s="15">
         <v>67.478511100000006</v>
       </c>
       <c r="D286" s="9" t="s">
@@ -5625,14 +5638,14 @@
       <c r="E286" s="13"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B287" s="9">
         <v>212</v>
       </c>
-      <c r="C287" s="16">
+      <c r="C287" s="15">
         <v>80.489554830000003</v>
       </c>
       <c r="D287" s="9" t="s">
@@ -5641,14 +5654,14 @@
       <c r="E287" s="13"/>
       <c r="F287" s="4"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B288" s="9">
         <v>200</v>
       </c>
-      <c r="C288" s="16">
+      <c r="C288" s="15">
         <v>48.580659750000002</v>
       </c>
       <c r="D288" s="9" t="s">
@@ -5657,14 +5670,14 @@
       <c r="E288" s="13"/>
       <c r="F288" s="4"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B289" s="9">
         <v>341</v>
       </c>
-      <c r="C289" s="16">
+      <c r="C289" s="15">
         <v>47.103707559999997</v>
       </c>
       <c r="D289" s="9" t="s">
@@ -5673,14 +5686,14 @@
       <c r="E289" s="13"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B290" s="9">
         <v>198</v>
       </c>
-      <c r="C290" s="16">
+      <c r="C290" s="15">
         <v>16.911002450000002</v>
       </c>
       <c r="D290" s="9" t="s">
@@ -5689,14 +5702,14 @@
       <c r="E290" s="13"/>
       <c r="F290" s="4"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B291" s="9">
         <v>212</v>
       </c>
-      <c r="C291" s="16">
+      <c r="C291" s="15">
         <v>98.804952810000003</v>
       </c>
       <c r="D291" s="9" t="s">
@@ -5705,14 +5718,14 @@
       <c r="E291" s="13"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B292" s="9">
         <v>201</v>
       </c>
-      <c r="C292" s="16">
+      <c r="C292" s="15">
         <v>93.020569350000002</v>
       </c>
       <c r="D292" s="9" t="s">
@@ -5721,14 +5734,14 @@
       <c r="E292" s="13"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B293" s="9">
         <v>306</v>
       </c>
-      <c r="C293" s="16">
+      <c r="C293" s="15">
         <v>76.447694139999996</v>
       </c>
       <c r="D293" s="9" t="s">
@@ -5737,14 +5750,14 @@
       <c r="E293" s="13"/>
       <c r="F293" s="4"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B294" s="9">
         <v>298</v>
       </c>
-      <c r="C294" s="16">
+      <c r="C294" s="15">
         <v>75.707104040000004</v>
       </c>
       <c r="D294" s="9" t="s">
@@ -5753,14 +5766,14 @@
       <c r="E294" s="13"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B295" s="9">
         <v>278</v>
       </c>
-      <c r="C295" s="16">
+      <c r="C295" s="15">
         <v>90.7315641</v>
       </c>
       <c r="D295" s="9" t="s">
@@ -5769,14 +5782,14 @@
       <c r="E295" s="13"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B296" s="9">
         <v>367</v>
       </c>
-      <c r="C296" s="16">
+      <c r="C296" s="15">
         <v>28.33933974</v>
       </c>
       <c r="D296" s="9" t="s">
@@ -5785,14 +5798,14 @@
       <c r="E296" s="13"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B297" s="9">
         <v>228</v>
       </c>
-      <c r="C297" s="16">
+      <c r="C297" s="15">
         <v>52.03787312</v>
       </c>
       <c r="D297" s="9" t="s">
@@ -5801,14 +5814,14 @@
       <c r="E297" s="13"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B298" s="9">
         <v>233</v>
       </c>
-      <c r="C298" s="16">
+      <c r="C298" s="15">
         <v>27.884419560000001</v>
       </c>
       <c r="D298" s="9" t="s">
@@ -5817,14 +5830,14 @@
       <c r="E298" s="13"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B299" s="9">
         <v>219</v>
       </c>
-      <c r="C299" s="16">
+      <c r="C299" s="15">
         <v>71.568985589999997</v>
       </c>
       <c r="D299" s="9" t="s">
@@ -5833,14 +5846,14 @@
       <c r="E299" s="13"/>
       <c r="F299" s="4"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B300" s="9">
         <v>281</v>
       </c>
-      <c r="C300" s="16">
+      <c r="C300" s="15">
         <v>31.606801879999999</v>
       </c>
       <c r="D300" s="9" t="s">
@@ -5849,14 +5862,14 @@
       <c r="E300" s="13"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B301" s="9">
         <v>197</v>
       </c>
-      <c r="C301" s="16">
+      <c r="C301" s="15">
         <v>63.132776509999999</v>
       </c>
       <c r="D301" s="9" t="s">
@@ -5877,51 +5890,74 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="63.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="63.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="10">
+        <f>SUMIF(Data!A2:A301, "B", Data!B2:B301)</f>
+        <v>17162</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="10">
+        <f>SUMIFS(Data!B2:B301, Data!A2:A301, "A", Data!D2:D301, "Feb")</f>
+        <v>1001</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <f>AVERAGEIFS(Data!C2:C301, Data!A2:A301, "C", Data!D2:D301, "Oct")</f>
+        <v>31.807781532166668</v>
+      </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="10">
+        <f>AVERAGEIF(Data!A2:A301, "C",Data!B2:B301) + AVERAGEIF(Data!A2:A301, "D",Data!B2:B301)</f>
+        <v>583.52</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="11">
+        <f>AVERAGEIF(Data!A2:A301, "D",Data!B2:B301)</f>
+        <v>331.10666666666668</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
   </sheetData>
